--- a/report.xlsx
+++ b/report.xlsx
@@ -469,8 +469,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>2007</v>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
       </c>
       <c r="B2" s="2" t="n">
         <v>38418</v>
@@ -486,8 +488,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>2008</v>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
       </c>
       <c r="B3" s="2" t="n">
         <v>43392</v>
@@ -503,8 +507,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2009</v>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
       </c>
       <c r="B4" s="2" t="n">
         <v>42249</v>
@@ -520,8 +526,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>2010</v>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="B5" s="2" t="n">
         <v>43519</v>
@@ -537,8 +545,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>2011</v>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="B6" s="2" t="n">
         <v>47226</v>
@@ -554,8 +564,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>2012</v>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="B7" s="2" t="n">
         <v>47969</v>
@@ -571,8 +583,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>2013</v>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="B8" s="2" t="n">
         <v>45652</v>
